--- a/2-working-with-multiple-groups/iris-viz-solution.xlsx
+++ b/2-working-with-multiple-groups/iris-viz-solution.xlsx
@@ -8,26 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\2-working-with-multiple-groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC5816EE-2C5A-4D10-AFEE-3D469E118BEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE76DE9-9CC9-498C-BCC4-F729799FDEAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="1" r:id="rId1"/>
     <sheet name="box-plot" sheetId="2" r:id="rId2"/>
-    <sheet name="box-plot-img" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="histogram (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="box-plot-img" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'box-plot'!$B$2:$B$151</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'box-plot'!$C$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">'box-plot'!$C$2:$C$151</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'box-plot'!$B$2:$B$151</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'box-plot'!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'box-plot'!$C$2:$C$151</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="20">
   <si>
     <t>Sepal.Length</t>
   </si>
@@ -81,58 +79,28 @@
     <t>Column Labels</t>
   </si>
   <si>
-    <t>4.3-4.5</t>
+    <t>4.3-4.8</t>
   </si>
   <si>
-    <t>4.5-4.7</t>
+    <t>4.8-5.3</t>
   </si>
   <si>
-    <t>4.7-4.9</t>
+    <t>5.3-5.8</t>
   </si>
   <si>
-    <t>4.9-5.1</t>
+    <t>5.8-6.3</t>
   </si>
   <si>
-    <t>5.1-5.3</t>
+    <t>6.3-6.8</t>
   </si>
   <si>
-    <t>5.3-5.5</t>
+    <t>6.8-7.3</t>
   </si>
   <si>
-    <t>5.5-5.7</t>
+    <t>7.3-7.8</t>
   </si>
   <si>
-    <t>5.7-5.9</t>
-  </si>
-  <si>
-    <t>5.9-6.1</t>
-  </si>
-  <si>
-    <t>6.1-6.3</t>
-  </si>
-  <si>
-    <t>6.3-6.5</t>
-  </si>
-  <si>
-    <t>6.5-6.7</t>
-  </si>
-  <si>
-    <t>6.7-6.9</t>
-  </si>
-  <si>
-    <t>6.9-7.1</t>
-  </si>
-  <si>
-    <t>7.1-7.3</t>
-  </si>
-  <si>
-    <t>7.3-7.5</t>
-  </si>
-  <si>
-    <t>7.5-7.7</t>
-  </si>
-  <si>
-    <t>7.7-7.9</t>
+    <t>7.8-8.3</t>
   </si>
 </sst>
 </file>
@@ -909,95 +877,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>histogram!$H$3:$H$20</c:f>
+              <c:f>histogram!$H$3:$H$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.3-4.5</c:v>
+                  <c:v>4.3-4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5-4.7</c:v>
+                  <c:v>4.8-5.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7-4.9</c:v>
+                  <c:v>5.3-5.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9-5.1</c:v>
+                  <c:v>5.8-6.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1-5.3</c:v>
+                  <c:v>6.3-6.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3-5.5</c:v>
+                  <c:v>6.8-7.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5-5.7</c:v>
+                  <c:v>7.3-7.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7-5.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.9-6.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1-6.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3-6.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.5-6.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7-6.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9-7.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.1-7.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3-7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5-7.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.7-7.9</c:v>
+                  <c:v>7.8-8.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>histogram!$I$3:$I$20</c:f>
+              <c:f>histogram!$I$3:$I$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1034,104 +960,56 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>histogram!$H$3:$H$20</c:f>
+              <c:f>histogram!$H$3:$H$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.3-4.5</c:v>
+                  <c:v>4.3-4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5-4.7</c:v>
+                  <c:v>4.8-5.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7-4.9</c:v>
+                  <c:v>5.3-5.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9-5.1</c:v>
+                  <c:v>5.8-6.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1-5.3</c:v>
+                  <c:v>6.3-6.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3-5.5</c:v>
+                  <c:v>6.8-7.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5-5.7</c:v>
+                  <c:v>7.3-7.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7-5.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.9-6.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1-6.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3-6.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.5-6.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7-6.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9-7.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.1-7.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3-7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5-7.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.7-7.9</c:v>
+                  <c:v>7.8-8.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>histogram!$J$3:$J$20</c:f>
+              <c:f>histogram!$J$3:$J$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1168,110 +1046,62 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>histogram!$H$3:$H$20</c:f>
+              <c:f>histogram!$H$3:$H$10</c:f>
               <c:strCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.3-4.5</c:v>
+                  <c:v>4.3-4.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.5-4.7</c:v>
+                  <c:v>4.8-5.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7-4.9</c:v>
+                  <c:v>5.3-5.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9-5.1</c:v>
+                  <c:v>5.8-6.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1-5.3</c:v>
+                  <c:v>6.3-6.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3-5.5</c:v>
+                  <c:v>6.8-7.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5-5.7</c:v>
+                  <c:v>7.3-7.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.7-5.9</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.9-6.1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.1-6.3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.3-6.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.5-6.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.7-6.9</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.9-7.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.1-7.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3-7.5</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.5-7.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.7-7.9</c:v>
+                  <c:v>7.8-8.3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>histogram!$K$3:$K$20</c:f>
+              <c:f>histogram!$K$3:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="3">
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1486,6 +1316,666 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[iris-viz-solution.xlsx]histogram (2)!PivotTable6</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram (2)'!$I$1:$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>setosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histogram (2)'!$H$3:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3-4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8-5.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8-6.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3-6.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8-7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3-7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8-8.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram (2)'!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF85-4F52-9C4F-D8AE19EBD417}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram (2)'!$J$1:$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>versicolor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histogram (2)'!$H$3:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3-4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8-5.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8-6.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3-6.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8-7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3-7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8-8.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram (2)'!$J$3:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF85-4F52-9C4F-D8AE19EBD417}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'histogram (2)'!$K$1:$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>virginica</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histogram (2)'!$H$3:$H$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.3-4.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8-5.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3-5.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8-6.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3-6.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8-7.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3-7.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8-8.3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histogram (2)'!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF85-4F52-9C4F-D8AE19EBD417}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="895550335"/>
+        <c:axId val="943930815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="895550335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="943930815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="943930815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="895550335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -1569,6 +2059,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2626,6 +3156,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2795,6 +3828,47 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>41910</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>430530</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51AA00BD-1113-472E-B414-922183F1B2C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3983,28 +5057,18 @@
         <n v="7.9"/>
       </sharedItems>
       <fieldGroup base="2">
-        <rangePr startNum="4.3" endNum="7.9" groupInterval="0.2"/>
-        <groupItems count="20">
+        <rangePr startNum="4.3" endNum="7.9" groupInterval="0.5"/>
+        <groupItems count="10">
           <s v="&lt;4.3"/>
-          <s v="4.3-4.5"/>
-          <s v="4.5-4.7"/>
-          <s v="4.7-4.9"/>
-          <s v="4.9-5.1"/>
-          <s v="5.1-5.3"/>
-          <s v="5.3-5.5"/>
-          <s v="5.5-5.7"/>
-          <s v="5.7-5.9"/>
-          <s v="5.9-6.1"/>
-          <s v="6.1-6.3"/>
-          <s v="6.3-6.5"/>
-          <s v="6.5-6.7"/>
-          <s v="6.7-6.9"/>
-          <s v="6.9-7.1"/>
-          <s v="7.1-7.3"/>
-          <s v="7.3-7.5"/>
-          <s v="7.5-7.7"/>
-          <s v="7.7-7.9"/>
-          <s v="&gt;7.9"/>
+          <s v="4.3-4.8"/>
+          <s v="4.8-5.3"/>
+          <s v="5.3-5.8"/>
+          <s v="5.8-6.3"/>
+          <s v="6.3-6.8"/>
+          <s v="6.8-7.3"/>
+          <s v="7.3-7.8"/>
+          <s v="7.8-8.3"/>
+          <s v="&gt;8.3"/>
         </groupItems>
       </fieldGroup>
     </cacheField>
@@ -5232,8 +6296,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5FD33DA-D93A-47DF-86AE-7E32FCBF71CE}" name="PivotTable6" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="H1:K20" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B5FD33DA-D93A-47DF-86AE-7E32FCBF71CE}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H1:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisCol" showAll="0">
@@ -5245,7 +6309,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="21">
+      <items count="11">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -5256,16 +6320,6 @@
         <item x="7"/>
         <item x="8"/>
         <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5276,7 +6330,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="8">
     <i>
       <x v="1"/>
     </i>
@@ -5300,36 +6354,6 @@
     </i>
     <i>
       <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
     </i>
   </rowItems>
   <colFields count="1">
@@ -5375,6 +6399,242 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{730DA066-8114-4E25-9447-17A2BF31CDEC}" name="PivotTable6" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="H1:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id" fld="0" subtotal="count" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5698,8 +6958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5792,7 +7052,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -5820,10 +7080,14 @@
         <v>13</v>
       </c>
       <c r="I4" s="3">
-        <v>5</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -5848,10 +7112,14 @@
         <v>14</v>
       </c>
       <c r="I5" s="3">
-        <v>7</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -5876,13 +7144,13 @@
         <v>15</v>
       </c>
       <c r="I6" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -5907,13 +7175,13 @@
       <c r="H7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
         <v>11</v>
       </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -5937,13 +7205,13 @@
       <c r="H8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="3">
-        <v>6</v>
-      </c>
+      <c r="I8" s="3"/>
       <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -5967,14 +7235,10 @@
       <c r="H9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="3">
-        <v>2</v>
-      </c>
-      <c r="J9" s="3">
-        <v>10</v>
-      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
       <c r="K9" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -5999,14 +7263,10 @@
       <c r="H10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3">
-        <v>8</v>
-      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6028,16 +7288,6 @@
       <c r="F11">
         <v>0.1</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3">
-        <v>6</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -6058,16 +7308,6 @@
       <c r="F12">
         <v>0.2</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3">
-        <v>6</v>
-      </c>
-      <c r="K12" s="3">
-        <v>4</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -6088,16 +7328,6 @@
       <c r="F13">
         <v>0.2</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -6118,16 +7348,6 @@
       <c r="F14">
         <v>0.1</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>4</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -6148,16 +7368,6 @@
       <c r="F15">
         <v>0.1</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3">
-        <v>4</v>
-      </c>
-      <c r="K15" s="3">
-        <v>7</v>
-      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -6178,18 +7388,8 @@
       <c r="F16">
         <v>0.2</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3">
-        <v>2</v>
-      </c>
-      <c r="K16" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6208,16 +7408,8 @@
       <c r="F17">
         <v>0.4</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6236,16 +7428,8 @@
       <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6264,16 +7448,8 @@
       <c r="F19">
         <v>0.3</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6292,16 +7468,8 @@
       <c r="F20">
         <v>0.3</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6321,7 +7489,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6341,7 +7509,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -6361,7 +7529,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -6381,7 +7549,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -6401,7 +7569,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -6421,7 +7589,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -6441,7 +7609,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -6461,7 +7629,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -6481,7 +7649,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -6501,7 +7669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -6521,7 +7689,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8931,7 +10099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D122ACB7-2560-4C1F-94D1-4D2E436EF581}">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
@@ -11964,6 +13132,3147 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39F1192-0AF7-45C3-B8C0-FA77B45994F2}">
+  <dimension ref="A1:K151"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.8984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D2">
+        <v>3.5</v>
+      </c>
+      <c r="E2">
+        <v>1.4</v>
+      </c>
+      <c r="F2">
+        <v>0.2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1.4</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3">
+        <v>11</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4.7</v>
+      </c>
+      <c r="D4">
+        <v>3.2</v>
+      </c>
+      <c r="E4">
+        <v>1.3</v>
+      </c>
+      <c r="F4">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="3">
+        <v>28</v>
+      </c>
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D5">
+        <v>3.1</v>
+      </c>
+      <c r="E5">
+        <v>1.5</v>
+      </c>
+      <c r="F5">
+        <v>0.2</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3">
+        <v>16</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>3.6</v>
+      </c>
+      <c r="E6">
+        <v>1.4</v>
+      </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>15</v>
+      </c>
+      <c r="K6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5.4</v>
+      </c>
+      <c r="D7">
+        <v>3.9</v>
+      </c>
+      <c r="E7">
+        <v>1.7</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3">
+        <v>11</v>
+      </c>
+      <c r="K7" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>3.4</v>
+      </c>
+      <c r="E8">
+        <v>1.4</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>3.4</v>
+      </c>
+      <c r="E9">
+        <v>1.5</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D10">
+        <v>2.9</v>
+      </c>
+      <c r="E10">
+        <v>1.4</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D11">
+        <v>3.1</v>
+      </c>
+      <c r="E11">
+        <v>1.5</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>5.4</v>
+      </c>
+      <c r="D12">
+        <v>3.7</v>
+      </c>
+      <c r="E12">
+        <v>1.5</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>4.8</v>
+      </c>
+      <c r="D13">
+        <v>3.4</v>
+      </c>
+      <c r="E13">
+        <v>1.6</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>4.8</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1.4</v>
+      </c>
+      <c r="F14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>4.3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>5.8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>1.2</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>5.7</v>
+      </c>
+      <c r="D17">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E17">
+        <v>1.5</v>
+      </c>
+      <c r="F17">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>5.4</v>
+      </c>
+      <c r="D18">
+        <v>3.9</v>
+      </c>
+      <c r="E18">
+        <v>1.3</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
+      <c r="E19">
+        <v>1.4</v>
+      </c>
+      <c r="F19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>5.7</v>
+      </c>
+      <c r="D20">
+        <v>3.8</v>
+      </c>
+      <c r="E20">
+        <v>1.7</v>
+      </c>
+      <c r="F20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D21">
+        <v>3.8</v>
+      </c>
+      <c r="E21">
+        <v>1.5</v>
+      </c>
+      <c r="F21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>5.4</v>
+      </c>
+      <c r="D22">
+        <v>3.4</v>
+      </c>
+      <c r="E22">
+        <v>1.7</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D23">
+        <v>3.7</v>
+      </c>
+      <c r="E23">
+        <v>1.5</v>
+      </c>
+      <c r="F23">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D24">
+        <v>3.6</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D25">
+        <v>3.3</v>
+      </c>
+      <c r="E25">
+        <v>1.7</v>
+      </c>
+      <c r="F25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>4.8</v>
+      </c>
+      <c r="D26">
+        <v>3.4</v>
+      </c>
+      <c r="E26">
+        <v>1.9</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>1.6</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>3.4</v>
+      </c>
+      <c r="E28">
+        <v>1.6</v>
+      </c>
+      <c r="F28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>5.2</v>
+      </c>
+      <c r="D29">
+        <v>3.5</v>
+      </c>
+      <c r="E29">
+        <v>1.5</v>
+      </c>
+      <c r="F29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>5.2</v>
+      </c>
+      <c r="D30">
+        <v>3.4</v>
+      </c>
+      <c r="E30">
+        <v>1.4</v>
+      </c>
+      <c r="F30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4.7</v>
+      </c>
+      <c r="D31">
+        <v>3.2</v>
+      </c>
+      <c r="E31">
+        <v>1.6</v>
+      </c>
+      <c r="F31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32">
+        <v>4.8</v>
+      </c>
+      <c r="D32">
+        <v>3.1</v>
+      </c>
+      <c r="E32">
+        <v>1.6</v>
+      </c>
+      <c r="F32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>5.4</v>
+      </c>
+      <c r="D33">
+        <v>3.4</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>5.2</v>
+      </c>
+      <c r="D34">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E34">
+        <v>1.5</v>
+      </c>
+      <c r="F34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>5.5</v>
+      </c>
+      <c r="D35">
+        <v>4.2</v>
+      </c>
+      <c r="E35">
+        <v>1.4</v>
+      </c>
+      <c r="F35">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D36">
+        <v>3.1</v>
+      </c>
+      <c r="E36">
+        <v>1.5</v>
+      </c>
+      <c r="F36">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3.2</v>
+      </c>
+      <c r="E37">
+        <v>1.2</v>
+      </c>
+      <c r="F37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>5.5</v>
+      </c>
+      <c r="D38">
+        <v>3.5</v>
+      </c>
+      <c r="E38">
+        <v>1.3</v>
+      </c>
+      <c r="F38">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D39">
+        <v>3.6</v>
+      </c>
+      <c r="E39">
+        <v>1.4</v>
+      </c>
+      <c r="F39">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>1.3</v>
+      </c>
+      <c r="F40">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D41">
+        <v>3.4</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>3.5</v>
+      </c>
+      <c r="E42">
+        <v>1.3</v>
+      </c>
+      <c r="F42">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>4.5</v>
+      </c>
+      <c r="D43">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E43">
+        <v>1.3</v>
+      </c>
+      <c r="F43">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D44">
+        <v>3.2</v>
+      </c>
+      <c r="E44">
+        <v>1.3</v>
+      </c>
+      <c r="F44">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>3.5</v>
+      </c>
+      <c r="E45">
+        <v>1.6</v>
+      </c>
+      <c r="F45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D46">
+        <v>3.8</v>
+      </c>
+      <c r="E46">
+        <v>1.9</v>
+      </c>
+      <c r="F46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>4.8</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>1.4</v>
+      </c>
+      <c r="F47">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D48">
+        <v>3.8</v>
+      </c>
+      <c r="E48">
+        <v>1.6</v>
+      </c>
+      <c r="F48">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D49">
+        <v>3.2</v>
+      </c>
+      <c r="E49">
+        <v>1.4</v>
+      </c>
+      <c r="F49">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5.3</v>
+      </c>
+      <c r="D50">
+        <v>3.7</v>
+      </c>
+      <c r="E50">
+        <v>1.5</v>
+      </c>
+      <c r="F50">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>3.3</v>
+      </c>
+      <c r="E51">
+        <v>1.4</v>
+      </c>
+      <c r="F51">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>3.2</v>
+      </c>
+      <c r="E52">
+        <v>4.7</v>
+      </c>
+      <c r="F52">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>6.4</v>
+      </c>
+      <c r="D53">
+        <v>3.2</v>
+      </c>
+      <c r="E53">
+        <v>4.5</v>
+      </c>
+      <c r="F53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>6.9</v>
+      </c>
+      <c r="D54">
+        <v>3.1</v>
+      </c>
+      <c r="E54">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>5.5</v>
+      </c>
+      <c r="D55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>6.5</v>
+      </c>
+      <c r="D56">
+        <v>2.8</v>
+      </c>
+      <c r="E56">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F56">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>5.7</v>
+      </c>
+      <c r="D57">
+        <v>2.8</v>
+      </c>
+      <c r="E57">
+        <v>4.5</v>
+      </c>
+      <c r="F57">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>6.3</v>
+      </c>
+      <c r="D58">
+        <v>3.3</v>
+      </c>
+      <c r="E58">
+        <v>4.7</v>
+      </c>
+      <c r="F58">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D59">
+        <v>2.4</v>
+      </c>
+      <c r="E59">
+        <v>3.3</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>6.6</v>
+      </c>
+      <c r="D60">
+        <v>2.9</v>
+      </c>
+      <c r="E60">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F60">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>5.2</v>
+      </c>
+      <c r="D61">
+        <v>2.7</v>
+      </c>
+      <c r="E61">
+        <v>3.9</v>
+      </c>
+      <c r="F61">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>3.5</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>5.9</v>
+      </c>
+      <c r="D63">
+        <v>3</v>
+      </c>
+      <c r="E63">
+        <v>4.2</v>
+      </c>
+      <c r="F63">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E64">
+        <v>4</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>6.1</v>
+      </c>
+      <c r="D65">
+        <v>2.9</v>
+      </c>
+      <c r="E65">
+        <v>4.7</v>
+      </c>
+      <c r="F65">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>5.6</v>
+      </c>
+      <c r="D66">
+        <v>2.9</v>
+      </c>
+      <c r="E66">
+        <v>3.6</v>
+      </c>
+      <c r="F66">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>6.7</v>
+      </c>
+      <c r="D67">
+        <v>3.1</v>
+      </c>
+      <c r="E67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F67">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>5.6</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68">
+        <v>4.5</v>
+      </c>
+      <c r="F68">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>5.8</v>
+      </c>
+      <c r="D69">
+        <v>2.7</v>
+      </c>
+      <c r="E69">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70">
+        <v>6.2</v>
+      </c>
+      <c r="D70">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E70">
+        <v>4.5</v>
+      </c>
+      <c r="F70">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>5.6</v>
+      </c>
+      <c r="D71">
+        <v>2.5</v>
+      </c>
+      <c r="E71">
+        <v>3.9</v>
+      </c>
+      <c r="F71">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>5.9</v>
+      </c>
+      <c r="D72">
+        <v>3.2</v>
+      </c>
+      <c r="E72">
+        <v>4.8</v>
+      </c>
+      <c r="F72">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>6.1</v>
+      </c>
+      <c r="D73">
+        <v>2.8</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>6.3</v>
+      </c>
+      <c r="D74">
+        <v>2.5</v>
+      </c>
+      <c r="E74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F74">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>6.1</v>
+      </c>
+      <c r="D75">
+        <v>2.8</v>
+      </c>
+      <c r="E75">
+        <v>4.7</v>
+      </c>
+      <c r="F75">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>6.4</v>
+      </c>
+      <c r="D76">
+        <v>2.9</v>
+      </c>
+      <c r="E76">
+        <v>4.3</v>
+      </c>
+      <c r="F76">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>6.6</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+      <c r="E77">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F77">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78">
+        <v>6.8</v>
+      </c>
+      <c r="D78">
+        <v>2.8</v>
+      </c>
+      <c r="E78">
+        <v>4.8</v>
+      </c>
+      <c r="F78">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>6.7</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+      <c r="F79">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <v>2.9</v>
+      </c>
+      <c r="E80">
+        <v>4.5</v>
+      </c>
+      <c r="F80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>5.7</v>
+      </c>
+      <c r="D81">
+        <v>2.6</v>
+      </c>
+      <c r="E81">
+        <v>3.5</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82">
+        <v>5.5</v>
+      </c>
+      <c r="D82">
+        <v>2.4</v>
+      </c>
+      <c r="E82">
+        <v>3.8</v>
+      </c>
+      <c r="F82">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>5.5</v>
+      </c>
+      <c r="D83">
+        <v>2.4</v>
+      </c>
+      <c r="E83">
+        <v>3.7</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>5.8</v>
+      </c>
+      <c r="D84">
+        <v>2.7</v>
+      </c>
+      <c r="E84">
+        <v>3.9</v>
+      </c>
+      <c r="F84">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+      <c r="D85">
+        <v>2.7</v>
+      </c>
+      <c r="E85">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F85">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>5.4</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>4.5</v>
+      </c>
+      <c r="F86">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+      <c r="D87">
+        <v>3.4</v>
+      </c>
+      <c r="E87">
+        <v>4.5</v>
+      </c>
+      <c r="F87">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>6.7</v>
+      </c>
+      <c r="D88">
+        <v>3.1</v>
+      </c>
+      <c r="E88">
+        <v>4.7</v>
+      </c>
+      <c r="F88">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>6</v>
+      </c>
+      <c r="C89">
+        <v>6.3</v>
+      </c>
+      <c r="D89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E89">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F89">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>5.6</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F90">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91">
+        <v>5.5</v>
+      </c>
+      <c r="D91">
+        <v>2.5</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>5.5</v>
+      </c>
+      <c r="D92">
+        <v>2.6</v>
+      </c>
+      <c r="E92">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F92">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>6.1</v>
+      </c>
+      <c r="D93">
+        <v>3</v>
+      </c>
+      <c r="E93">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F93">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>5.8</v>
+      </c>
+      <c r="D94">
+        <v>2.6</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>5</v>
+      </c>
+      <c r="D95">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E95">
+        <v>3.3</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>6</v>
+      </c>
+      <c r="C96">
+        <v>5.6</v>
+      </c>
+      <c r="D96">
+        <v>2.7</v>
+      </c>
+      <c r="E96">
+        <v>4.2</v>
+      </c>
+      <c r="F96">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>5.7</v>
+      </c>
+      <c r="D97">
+        <v>3</v>
+      </c>
+      <c r="E97">
+        <v>4.2</v>
+      </c>
+      <c r="F97">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98">
+        <v>5.7</v>
+      </c>
+      <c r="D98">
+        <v>2.9</v>
+      </c>
+      <c r="E98">
+        <v>4.2</v>
+      </c>
+      <c r="F98">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>6.2</v>
+      </c>
+      <c r="D99">
+        <v>2.9</v>
+      </c>
+      <c r="E99">
+        <v>4.3</v>
+      </c>
+      <c r="F99">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D100">
+        <v>2.5</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>5.7</v>
+      </c>
+      <c r="D101">
+        <v>2.8</v>
+      </c>
+      <c r="E101">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F101">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>6.3</v>
+      </c>
+      <c r="D102">
+        <v>3.3</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>5.8</v>
+      </c>
+      <c r="D103">
+        <v>2.7</v>
+      </c>
+      <c r="E103">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F103">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>7.1</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104">
+        <v>5.9</v>
+      </c>
+      <c r="F104">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>6.3</v>
+      </c>
+      <c r="D105">
+        <v>2.9</v>
+      </c>
+      <c r="E105">
+        <v>5.6</v>
+      </c>
+      <c r="F105">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>6.5</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106">
+        <v>5.8</v>
+      </c>
+      <c r="F106">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>7.6</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107">
+        <v>6.6</v>
+      </c>
+      <c r="F107">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D108">
+        <v>2.5</v>
+      </c>
+      <c r="E108">
+        <v>4.5</v>
+      </c>
+      <c r="F108">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>7.3</v>
+      </c>
+      <c r="D109">
+        <v>2.9</v>
+      </c>
+      <c r="E109">
+        <v>6.3</v>
+      </c>
+      <c r="F109">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>6.7</v>
+      </c>
+      <c r="D110">
+        <v>2.5</v>
+      </c>
+      <c r="E110">
+        <v>5.8</v>
+      </c>
+      <c r="F110">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>7.2</v>
+      </c>
+      <c r="D111">
+        <v>3.6</v>
+      </c>
+      <c r="E111">
+        <v>6.1</v>
+      </c>
+      <c r="F111">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>6.5</v>
+      </c>
+      <c r="D112">
+        <v>3.2</v>
+      </c>
+      <c r="E112">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>6.4</v>
+      </c>
+      <c r="D113">
+        <v>2.7</v>
+      </c>
+      <c r="E113">
+        <v>5.3</v>
+      </c>
+      <c r="F113">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>6.8</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114">
+        <v>5.5</v>
+      </c>
+      <c r="F114">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>5.7</v>
+      </c>
+      <c r="D115">
+        <v>2.5</v>
+      </c>
+      <c r="E115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>5.8</v>
+      </c>
+      <c r="D116">
+        <v>2.8</v>
+      </c>
+      <c r="E116">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F116">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>6.4</v>
+      </c>
+      <c r="D117">
+        <v>3.2</v>
+      </c>
+      <c r="E117">
+        <v>5.3</v>
+      </c>
+      <c r="F117">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>6.5</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118">
+        <v>5.5</v>
+      </c>
+      <c r="F118">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>7.7</v>
+      </c>
+      <c r="D119">
+        <v>3.8</v>
+      </c>
+      <c r="E119">
+        <v>6.7</v>
+      </c>
+      <c r="F119">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>7.7</v>
+      </c>
+      <c r="D120">
+        <v>2.6</v>
+      </c>
+      <c r="E120">
+        <v>6.9</v>
+      </c>
+      <c r="F120">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+      <c r="D121">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E121">
+        <v>5</v>
+      </c>
+      <c r="F121">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>6.9</v>
+      </c>
+      <c r="D122">
+        <v>3.2</v>
+      </c>
+      <c r="E122">
+        <v>5.7</v>
+      </c>
+      <c r="F122">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>5.6</v>
+      </c>
+      <c r="D123">
+        <v>2.8</v>
+      </c>
+      <c r="E123">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>7.7</v>
+      </c>
+      <c r="D124">
+        <v>2.8</v>
+      </c>
+      <c r="E124">
+        <v>6.7</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>6.3</v>
+      </c>
+      <c r="D125">
+        <v>2.7</v>
+      </c>
+      <c r="E125">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F125">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>6.7</v>
+      </c>
+      <c r="D126">
+        <v>3.3</v>
+      </c>
+      <c r="E126">
+        <v>5.7</v>
+      </c>
+      <c r="F126">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>7.2</v>
+      </c>
+      <c r="D127">
+        <v>3.2</v>
+      </c>
+      <c r="E127">
+        <v>6</v>
+      </c>
+      <c r="F127">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>6.2</v>
+      </c>
+      <c r="D128">
+        <v>2.8</v>
+      </c>
+      <c r="E128">
+        <v>4.8</v>
+      </c>
+      <c r="F128">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>6.1</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F129">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>6.4</v>
+      </c>
+      <c r="D130">
+        <v>2.8</v>
+      </c>
+      <c r="E130">
+        <v>5.6</v>
+      </c>
+      <c r="F130">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>7.2</v>
+      </c>
+      <c r="D131">
+        <v>3</v>
+      </c>
+      <c r="E131">
+        <v>5.8</v>
+      </c>
+      <c r="F131">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>7.4</v>
+      </c>
+      <c r="D132">
+        <v>2.8</v>
+      </c>
+      <c r="E132">
+        <v>6.1</v>
+      </c>
+      <c r="F132">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>7.9</v>
+      </c>
+      <c r="D133">
+        <v>3.8</v>
+      </c>
+      <c r="E133">
+        <v>6.4</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>6.4</v>
+      </c>
+      <c r="D134">
+        <v>2.8</v>
+      </c>
+      <c r="E134">
+        <v>5.6</v>
+      </c>
+      <c r="F134">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>6.3</v>
+      </c>
+      <c r="D135">
+        <v>2.8</v>
+      </c>
+      <c r="E135">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F135">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>6.1</v>
+      </c>
+      <c r="D136">
+        <v>2.6</v>
+      </c>
+      <c r="E136">
+        <v>5.6</v>
+      </c>
+      <c r="F136">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>7.7</v>
+      </c>
+      <c r="D137">
+        <v>3</v>
+      </c>
+      <c r="E137">
+        <v>6.1</v>
+      </c>
+      <c r="F137">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>6.3</v>
+      </c>
+      <c r="D138">
+        <v>3.4</v>
+      </c>
+      <c r="E138">
+        <v>5.6</v>
+      </c>
+      <c r="F138">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>6.4</v>
+      </c>
+      <c r="D139">
+        <v>3.1</v>
+      </c>
+      <c r="E139">
+        <v>5.5</v>
+      </c>
+      <c r="F139">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>6</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+      <c r="E140">
+        <v>4.8</v>
+      </c>
+      <c r="F140">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>6.9</v>
+      </c>
+      <c r="D141">
+        <v>3.1</v>
+      </c>
+      <c r="E141">
+        <v>5.4</v>
+      </c>
+      <c r="F141">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>6.7</v>
+      </c>
+      <c r="D142">
+        <v>3.1</v>
+      </c>
+      <c r="E142">
+        <v>5.6</v>
+      </c>
+      <c r="F142">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143">
+        <v>6.9</v>
+      </c>
+      <c r="D143">
+        <v>3.1</v>
+      </c>
+      <c r="E143">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F143">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144">
+        <v>5.8</v>
+      </c>
+      <c r="D144">
+        <v>2.7</v>
+      </c>
+      <c r="E144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F144">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>6.8</v>
+      </c>
+      <c r="D145">
+        <v>3.2</v>
+      </c>
+      <c r="E145">
+        <v>5.9</v>
+      </c>
+      <c r="F145">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>6.7</v>
+      </c>
+      <c r="D146">
+        <v>3.3</v>
+      </c>
+      <c r="E146">
+        <v>5.7</v>
+      </c>
+      <c r="F146">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>6.7</v>
+      </c>
+      <c r="D147">
+        <v>3</v>
+      </c>
+      <c r="E147">
+        <v>5.2</v>
+      </c>
+      <c r="F147">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>6.3</v>
+      </c>
+      <c r="D148">
+        <v>2.5</v>
+      </c>
+      <c r="E148">
+        <v>5</v>
+      </c>
+      <c r="F148">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>6.5</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>5.2</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>6.2</v>
+      </c>
+      <c r="D150">
+        <v>3.4</v>
+      </c>
+      <c r="E150">
+        <v>5.4</v>
+      </c>
+      <c r="F150">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>5.9</v>
+      </c>
+      <c r="D151">
+        <v>3</v>
+      </c>
+      <c r="E151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F151">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC6A8FF-9478-418D-8C9C-D5B088058E5F}">
   <dimension ref="A1:N1"/>
   <sheetViews>
